--- a/data/trans_orig/P74B2S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C215F1-92E0-4E10-BB89-2104B429694B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{235F7CFE-F7C2-4A3B-88E9-5780D2E098F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C17271C-9B60-4B55-A352-8F386FEA5210}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDC3148C-B493-4AAD-84C8-E79D13A096DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="438">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -115,25 +115,25 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>31,12%</t>
+    <t>32,7%</t>
   </si>
   <si>
     <t>44,27%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -142,19 +142,19 @@
     <t>55,73%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -163,7 +163,7 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>59,59%</t>
+    <t>66,63%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -172,1207 +172,1186 @@
     <t>1,62%</t>
   </si>
   <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>78,89%</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2601B63-E4D5-4840-88ED-BEBB24C8A5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEACE7-7756-47CD-A21C-D50B00012F5C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3562,13 +3541,13 @@
         <v>1706</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3562,13 @@
         <v>84216</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>476</v>
@@ -3598,13 +3577,13 @@
         <v>477992</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M37" s="7">
         <v>562</v>
@@ -3613,13 +3592,13 @@
         <v>562209</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3654,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BF243F-DB7B-41C9-B7F9-5AC2A7086615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EC242-757A-44DF-991D-EA299A29DD43}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3714,7 +3693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3854,7 +3833,7 @@
         <v>18</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>20</v>
@@ -3908,7 +3887,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,10 +4072,10 @@
         <v>9081</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
@@ -4108,10 +4087,10 @@
         <v>10047</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>18</v>
@@ -4144,13 +4123,13 @@
         <v>1047</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4159,13 +4138,13 @@
         <v>1047</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,22 +4180,22 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,22 +4231,22 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4314,13 @@
         <v>3826</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4350,13 +4329,13 @@
         <v>8393</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -4365,13 +4344,13 @@
         <v>12219</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4365,13 @@
         <v>2823</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4401,13 +4380,13 @@
         <v>3203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -4416,13 +4395,13 @@
         <v>6026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4416,13 @@
         <v>967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4458,7 +4437,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4467,13 +4446,13 @@
         <v>967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4509,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4524,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4571,13 @@
         <v>1386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4607,13 +4586,13 @@
         <v>3197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4622,13 +4601,13 @@
         <v>4583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,10 +4622,10 @@
         <v>3133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
@@ -4658,13 +4637,13 @@
         <v>15488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4673,13 +4652,13 @@
         <v>18620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4673,13 @@
         <v>982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4715,7 +4694,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4724,13 +4703,13 @@
         <v>982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4730,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4760,13 +4739,13 @@
         <v>9376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4775,13 +4754,13 @@
         <v>9376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4828,13 @@
         <v>2070</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4864,13 +4843,13 @@
         <v>3142</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4879,13 +4858,13 @@
         <v>5211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4879,13 @@
         <v>5382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4915,13 +4894,13 @@
         <v>12428</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4930,13 +4909,13 @@
         <v>17810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4972,7 +4951,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4987,7 +4966,7 @@
         <v>13</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4981,13 @@
         <v>3092</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H27" s="7">
         <v>75</v>
@@ -5017,13 +4996,13 @@
         <v>81091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M27" s="7">
         <v>78</v>
@@ -5032,13 +5011,13 @@
         <v>84183</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5085,13 @@
         <v>9531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5121,13 +5100,13 @@
         <v>1162</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5136,13 +5115,13 @@
         <v>10694</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5136,13 @@
         <v>3086</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5178,7 +5157,7 @@
         <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -5187,13 +5166,13 @@
         <v>3086</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5229,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5244,7 +5223,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5238,13 @@
         <v>43124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H32" s="7">
         <v>156</v>
@@ -5274,10 +5253,10 @@
         <v>166536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -5289,13 +5268,13 @@
         <v>209661</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5342,13 @@
         <v>18764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -5378,13 +5357,13 @@
         <v>25961</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -5393,13 +5372,13 @@
         <v>44725</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5393,13 @@
         <v>14424</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -5429,13 +5408,13 @@
         <v>32166</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -5444,13 +5423,13 @@
         <v>46590</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,28 +5444,28 @@
         <v>1949</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -5495,13 +5474,13 @@
         <v>1949</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5495,13 @@
         <v>46217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -5531,13 +5510,13 @@
         <v>257003</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M37" s="7">
         <v>282</v>
@@ -5546,13 +5525,13 @@
         <v>303220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +5587,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5630,7 +5609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4CBDA2-9779-4585-AE9A-E62327EC75CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3711D48F-3BE2-4FFB-80AA-3A73349E07D3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5647,7 +5626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5754,7 +5733,7 @@
         <v>1112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -5775,7 +5754,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5784,13 +5763,13 @@
         <v>1112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,7 +5784,7 @@
         <v>1798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -5826,7 +5805,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5835,13 +5814,13 @@
         <v>1798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,7 +5841,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5877,7 +5856,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5892,7 +5871,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5892,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5925,7 +5904,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>20</v>
@@ -5937,7 +5916,7 @@
         <v>1752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -6014,7 +5993,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>20</v>
@@ -6026,10 +6005,10 @@
         <v>4112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
@@ -6041,10 +6020,10 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>18</v>
@@ -6068,7 +6047,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6077,13 +6056,13 @@
         <v>741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6092,13 +6071,13 @@
         <v>741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,7 +6098,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6170,7 +6149,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6179,13 +6158,13 @@
         <v>1486</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6194,13 +6173,13 @@
         <v>1486</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6247,13 @@
         <v>7761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6283,13 +6262,13 @@
         <v>5559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -6298,13 +6277,13 @@
         <v>13320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6298,13 @@
         <v>2541</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -6334,13 +6313,13 @@
         <v>9337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -6349,13 +6328,13 @@
         <v>11878</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,7 +6355,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6406,7 +6385,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6400,13 @@
         <v>1020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6436,13 +6415,13 @@
         <v>7144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6451,13 +6430,13 @@
         <v>8163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6504,13 @@
         <v>6134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6540,13 +6519,13 @@
         <v>7210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6555,13 +6534,13 @@
         <v>13345</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6555,13 @@
         <v>6401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6591,13 +6570,13 @@
         <v>8391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -6606,13 +6585,13 @@
         <v>14792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,7 +6627,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6663,7 +6642,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6657,13 @@
         <v>1030</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6693,13 +6672,13 @@
         <v>22492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -6708,13 +6687,13 @@
         <v>23522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6761,13 @@
         <v>4903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -6797,13 +6776,13 @@
         <v>4586</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -6812,13 +6791,13 @@
         <v>9489</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>375</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,13 +6812,13 @@
         <v>6217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6848,13 +6827,13 @@
         <v>9020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6863,13 +6842,13 @@
         <v>15237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,7 +6869,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6905,7 +6884,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6935,13 +6914,13 @@
         <v>8916</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="H27" s="7">
         <v>135</v>
@@ -6950,13 +6929,13 @@
         <v>154527</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>392</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M27" s="7">
         <v>143</v>
@@ -6965,13 +6944,13 @@
         <v>163443</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7018,13 @@
         <v>37788</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7054,13 +7033,13 @@
         <v>2142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -7069,13 +7048,13 @@
         <v>39930</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7069,13 @@
         <v>1053</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -7105,13 +7084,13 @@
         <v>1106</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7120,13 +7099,13 @@
         <v>2159</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,7 +7141,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7192,13 +7171,13 @@
         <v>71045</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>302</v>
@@ -7210,10 +7189,10 @@
         <v>116</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M32" s="7">
         <v>376</v>
@@ -7222,13 +7201,13 @@
         <v>421195</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7275,13 @@
         <v>65117</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -7311,13 +7290,13 @@
         <v>23609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M34" s="7">
         <v>89</v>
@@ -7326,13 +7305,13 @@
         <v>88726</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7326,13 @@
         <v>18010</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -7362,13 +7341,13 @@
         <v>28595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M35" s="7">
         <v>42</v>
@@ -7377,13 +7356,13 @@
         <v>46605</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>266</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7398,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7434,7 +7413,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7428,13 @@
         <v>82010</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H37" s="7">
         <v>468</v>
@@ -7464,13 +7443,13 @@
         <v>537551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M37" s="7">
         <v>552</v>
@@ -7479,13 +7458,13 @@
         <v>619561</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,7 +7520,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235F7CFE-F7C2-4A3B-88E9-5780D2E098F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCFBC90D-0BEE-444B-9098-31EA011CFA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDC3148C-B493-4AAD-84C8-E79D13A096DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FB89CF9-0C54-47DB-A320-9475C9E9C5BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="444">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -115,25 +115,25 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>32,7%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>44,27%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -142,19 +142,19 @@
     <t>55,73%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>51,61%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -163,7 +163,7 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>66,63%</t>
+    <t>64,91%</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -172,1159 +172,1177 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>9,75%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2016 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -1333,25 +1351,25 @@
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>78,89%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEACE7-7756-47CD-A21C-D50B00012F5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E47F02-64E7-42CF-8408-2986108243F5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3541,13 +3559,13 @@
         <v>1706</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3580,13 @@
         <v>84216</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="H37" s="7">
         <v>476</v>
@@ -3676,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EC242-757A-44DF-991D-EA299A29DD43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F08071A-EB9D-4638-AE13-D404A5B3CE89}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4335,7 +4353,7 @@
         <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -4344,13 +4362,13 @@
         <v>12219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4383,13 @@
         <v>2823</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4380,13 +4398,13 @@
         <v>3203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -4395,13 +4413,13 @@
         <v>6026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4434,13 @@
         <v>967</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4437,7 +4455,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4446,13 +4464,13 @@
         <v>967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4491,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4488,7 +4506,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4503,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4589,13 @@
         <v>1386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4586,13 +4604,13 @@
         <v>3197</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4601,13 +4619,13 @@
         <v>4583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,10 +4640,10 @@
         <v>3133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
@@ -4637,13 +4655,13 @@
         <v>15488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -4652,13 +4670,13 @@
         <v>18620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4691,13 @@
         <v>982</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4694,7 +4712,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -4703,13 +4721,13 @@
         <v>982</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4748,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4739,13 +4757,13 @@
         <v>9376</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -4754,13 +4772,13 @@
         <v>9376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,16 +4843,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4843,13 +4861,13 @@
         <v>3142</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -4858,13 +4876,13 @@
         <v>5211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4897,13 @@
         <v>5382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4894,13 +4912,13 @@
         <v>12428</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4909,13 +4927,13 @@
         <v>17810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4969,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4966,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4999,13 @@
         <v>3092</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H27" s="7">
         <v>75</v>
@@ -4996,13 +5014,13 @@
         <v>81091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M27" s="7">
         <v>78</v>
@@ -5011,13 +5029,13 @@
         <v>84183</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5047,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>10544</v>
+        <v>10543</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
@@ -5085,13 +5103,13 @@
         <v>9531</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5100,13 +5118,13 @@
         <v>1162</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5115,13 +5133,13 @@
         <v>10694</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5154,13 @@
         <v>3086</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5157,7 +5175,7 @@
         <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -5166,13 +5184,13 @@
         <v>3086</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,23 +5211,23 @@
         <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="M31" s="7">
         <v>0</v>
       </c>
@@ -5223,7 +5241,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5256,13 @@
         <v>43124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H32" s="7">
         <v>156</v>
@@ -5253,10 +5271,10 @@
         <v>166536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
@@ -5268,13 +5286,13 @@
         <v>209661</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5360,13 @@
         <v>18764</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -5357,13 +5375,13 @@
         <v>25961</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -5372,13 +5390,13 @@
         <v>44725</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5411,13 @@
         <v>14424</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -5408,13 +5426,13 @@
         <v>32166</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -5423,13 +5441,13 @@
         <v>46590</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5462,13 @@
         <v>1949</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5465,7 +5483,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -5474,13 +5492,13 @@
         <v>1949</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5513,13 @@
         <v>46217</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7">
         <v>239</v>
@@ -5510,13 +5528,13 @@
         <v>257003</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M37" s="7">
         <v>282</v>
@@ -5525,13 +5543,13 @@
         <v>303220</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3711D48F-3BE2-4FFB-80AA-3A73349E07D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA1B148-F208-49F2-A6D1-5BFB21B4AAE2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5626,7 +5644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5733,7 +5751,7 @@
         <v>1112</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -5763,13 +5781,13 @@
         <v>1112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,7 +5802,7 @@
         <v>1798</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -5814,13 +5832,13 @@
         <v>1798</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5889,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5934,7 @@
         <v>1752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -5993,7 +6011,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>20</v>
@@ -6005,10 +6023,10 @@
         <v>4112</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
@@ -6020,10 +6038,10 @@
         <v>11531</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>18</v>
@@ -6047,7 +6065,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6056,13 +6074,13 @@
         <v>741</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6071,13 +6089,13 @@
         <v>741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6116,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6149,7 +6167,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -6158,13 +6176,13 @@
         <v>1486</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6173,13 +6191,13 @@
         <v>1486</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6265,13 @@
         <v>7761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6262,13 +6280,13 @@
         <v>5559</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -6277,13 +6295,13 @@
         <v>13320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6316,13 @@
         <v>2541</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -6313,13 +6331,13 @@
         <v>9337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -6328,13 +6346,13 @@
         <v>11878</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,7 +6403,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6418,13 @@
         <v>1020</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6415,13 +6433,13 @@
         <v>7144</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -6430,13 +6448,13 @@
         <v>8163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6522,13 @@
         <v>6134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6519,13 +6537,13 @@
         <v>7210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6534,13 +6552,13 @@
         <v>13345</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6573,13 @@
         <v>6401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6570,13 +6588,13 @@
         <v>8391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -6585,13 +6603,13 @@
         <v>14792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6645,7 @@
         <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6642,7 +6660,7 @@
         <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6675,13 @@
         <v>1030</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -6672,13 +6690,13 @@
         <v>22492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -6687,13 +6705,13 @@
         <v>23522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6779,13 @@
         <v>4903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -6776,13 +6794,13 @@
         <v>4586</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -6791,13 +6809,13 @@
         <v>9489</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>92</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6830,13 @@
         <v>6217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6827,13 +6845,13 @@
         <v>9020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6842,13 +6860,13 @@
         <v>15237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,7 +6887,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6884,7 +6902,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6914,13 +6932,13 @@
         <v>8916</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
         <v>135</v>
@@ -6929,13 +6947,13 @@
         <v>154527</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>137</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
         <v>143</v>
@@ -6944,13 +6962,13 @@
         <v>163443</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7036,13 @@
         <v>37788</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -7033,13 +7051,13 @@
         <v>2142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M29" s="7">
         <v>44</v>
@@ -7048,13 +7066,13 @@
         <v>39930</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7087,13 @@
         <v>1053</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>243</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -7084,13 +7102,13 @@
         <v>1106</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -7099,13 +7117,13 @@
         <v>2159</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>401</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7159,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7156,7 +7174,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>122</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7189,13 @@
         <v>71045</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H32" s="7">
         <v>302</v>
@@ -7186,13 +7204,13 @@
         <v>350150</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>376</v>
@@ -7201,13 +7219,13 @@
         <v>421195</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7293,13 @@
         <v>65117</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -7290,13 +7308,13 @@
         <v>23609</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M34" s="7">
         <v>89</v>
@@ -7305,13 +7323,13 @@
         <v>88726</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7344,13 @@
         <v>18010</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -7341,13 +7359,13 @@
         <v>28595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M35" s="7">
         <v>42</v>
@@ -7356,13 +7374,13 @@
         <v>46605</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7416,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7413,7 +7431,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7446,13 @@
         <v>82010</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H37" s="7">
         <v>468</v>
@@ -7443,13 +7461,13 @@
         <v>537551</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M37" s="7">
         <v>552</v>
@@ -7458,13 +7476,13 @@
         <v>619561</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>165</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
